--- a/fastqFiles/fastq_1658.xlsx
+++ b/fastqFiles/fastq_1658.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F0A70D-8FCD-334C-B4DC-E9F87A6B4F56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="35">
   <si>
     <t>libraryDate</t>
   </si>
@@ -37,9 +43,6 @@
     <t>07.11.16</t>
   </si>
   <si>
-    <t>Retrofitted_1658</t>
-  </si>
-  <si>
     <t>sequence/run_1658_samples/1658_Brent_Crypto_TimeCourse2016_1_TGAGGTT_S1_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -116,13 +119,19 @@
   </si>
   <si>
     <t>sequence/run_1658_samples/1658_Brent_Crypto_TimeCourse2016_27_TGTTTGT_S26_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
+  </si>
+  <si>
+    <t>S.GISH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +194,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -231,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,9 +280,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -297,6 +332,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,14 +525,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,12 +554,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -513,18 +568,18 @@
         <v>1658</v>
       </c>
       <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -533,18 +588,18 @@
         <v>1658</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -553,18 +608,18 @@
         <v>1658</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -573,18 +628,18 @@
         <v>1658</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -593,38 +648,38 @@
         <v>1658</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1658</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7">
-        <v>1658</v>
-      </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -633,18 +688,18 @@
         <v>1658</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -653,18 +708,18 @@
         <v>1658</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -673,18 +728,18 @@
         <v>1658</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -693,18 +748,18 @@
         <v>1658</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -713,18 +768,18 @@
         <v>1658</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -733,18 +788,18 @@
         <v>1658</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -753,18 +808,18 @@
         <v>1658</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -773,18 +828,18 @@
         <v>1658</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -793,18 +848,18 @@
         <v>1658</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -813,18 +868,18 @@
         <v>1658</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -833,18 +888,18 @@
         <v>1658</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -853,18 +908,18 @@
         <v>1658</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -873,18 +928,18 @@
         <v>1658</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -893,18 +948,18 @@
         <v>1658</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -913,18 +968,18 @@
         <v>1658</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -933,18 +988,18 @@
         <v>1658</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -953,18 +1008,18 @@
         <v>1658</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -973,18 +1028,18 @@
         <v>1658</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -993,18 +1048,18 @@
         <v>1658</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1013,10 +1068,10 @@
         <v>1658</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_1658.xlsx
+++ b/fastqFiles/fastq_1658.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -772,7 +772,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -838,7 +838,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -970,7 +970,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">

--- a/fastqFiles/fastq_1658.xlsx
+++ b/fastqFiles/fastq_1658.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fail - borderline expression of unexpected marker was deemed unnacceptable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[8]</t>
   </si>
   <si>
     <t xml:space="preserve">1658_Brent_Crypto_TimeCourse2016_27_TGTTTGT_S26_R1_001.fastq.gz</t>
@@ -237,12 +240,14 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X17" activeCellId="0" sqref="X17"/>
+      <selection pane="topLeft" activeCell="I27" activeCellId="0" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="68.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -779,11 +784,11 @@
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I26" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>9</v>
       </c>
@@ -800,7 +805,7 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>37</v>
@@ -808,8 +813,8 @@
       <c r="H27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>8</v>
+      <c r="I27" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
